--- a/MultiControl/bin/Debug/log/SM-J700F/20161104/3300a396c025c2fb.xlsx
+++ b/MultiControl/bin/Debug/log/SM-J700F/20161104/3300a396c025c2fb.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="51">
   <si>
     <t>PQAA SW</t>
   </si>
@@ -569,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -884,6 +884,268 @@
         <v>50</v>
       </c>
     </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="4">
+        <v>42678.144826388889</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ3" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="4">
+        <v>42678.146932870368</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ4" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
